--- a/public/sample/sample_prd05.xlsx
+++ b/public/sample/sample_prd05.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bigca\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bigca\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E3407B0-6B20-4667-99CF-69BB2EDF051C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D73F537-F666-4846-9756-ED0F16D45A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9135" yWindow="5085" windowWidth="25050" windowHeight="15435" xr2:uid="{201EFF86-C774-4506-AE62-1DB29EAF5D7F}"/>
+    <workbookView xWindow="3060" yWindow="2595" windowWidth="20130" windowHeight="15435" xr2:uid="{201EFF86-C774-4506-AE62-1DB29EAF5D7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,15 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
-  <si>
-    <t>정상가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>현재가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>변경금액(율)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -83,11 +75,7 @@
     <t>F235UCA15ACDNXL</t>
   </si>
   <si>
-    <t>금액</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>%</t>
+    <t>* 가격기준과 변경기준을 입력하지않고 변경금액을 작성 시 변경금액에 입력된 금액으로 상품의 가격이 변경됩니다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -503,9 +491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1C151F-23C8-4FEE-9F29-9252DF161CE8}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -520,7 +506,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
@@ -528,77 +514,60 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3"/>
+        <v>10</v>
+      </c>
       <c r="C3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4"/>
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="B4"/>
       <c r="C4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D6">
-        <v>30000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D7">
-        <v>-24000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>20000</v>
       </c>
     </row>
   </sheetData>
